--- a/public/import/Format Soal Evaluasi.xlsx
+++ b/public/import/Format Soal Evaluasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7725"/>
+    <workbookView windowWidth="15300" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>soal</t>
   </si>
@@ -53,69 +53,6 @@
   </si>
   <si>
     <t>20 Agustus</t>
-  </si>
-  <si>
-    <t>Apakah anad Jomblo</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>tidak</t>
-  </si>
-  <si>
-    <t>mungkin</t>
-  </si>
-  <si>
-    <t>tidak tahu</t>
-  </si>
-  <si>
-    <t>bingung</t>
-  </si>
-  <si>
-    <t>Tinggi badan anda</t>
-  </si>
-  <si>
-    <t>122cm</t>
-  </si>
-  <si>
-    <t>123cm</t>
-  </si>
-  <si>
-    <t>124cm</t>
-  </si>
-  <si>
-    <t>125cm</t>
-  </si>
-  <si>
-    <t>126cm</t>
-  </si>
-  <si>
-    <t>jumlah anak anda</t>
-  </si>
-  <si>
-    <t>tes aja dah</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>dfadsafdsa</t>
-  </si>
-  <si>
-    <t>fdafdsa</t>
-  </si>
-  <si>
-    <t>dsfdsaf</t>
-  </si>
-  <si>
-    <t>dfdsa</t>
-  </si>
-  <si>
-    <t>dsfdss</t>
-  </si>
-  <si>
-    <t>dsafda</t>
   </si>
 </sst>
 </file>
@@ -123,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +71,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,8 +96,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +128,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +144,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,22 +181,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -207,29 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,39 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,72 +227,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,109 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,21 +426,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +469,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -567,16 +504,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -586,148 +523,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.1" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -1116,121 +1053,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
